--- a/test11111.xlsx
+++ b/test11111.xlsx
@@ -14,77 +14,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>CERTIFICATE</t>
+  </si>
+  <si>
+    <t>TRANSACTION HASH</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>COURSE TITLE</t>
+  </si>
+  <si>
+    <t>SERIAL NUMBER</t>
+  </si>
   <si>
     <t>DIGITAL CERTIFICATE</t>
   </si>
   <si>
-    <t>SERIAL NUMBER</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>CERTIFICATE</t>
-  </si>
-  <si>
     <t>DATA HASH</t>
   </si>
   <si>
-    <t>TRANSACTION HASH</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>COURSE TITLE</t>
-  </si>
-  <si>
-    <t>SIGNATURE</t>
+    <t/>
+  </si>
+  <si>
+    <t>Біткоїн та криптовалюти</t>
+  </si>
+  <si>
+    <t>Петро Петрович Воробієнко</t>
+  </si>
+  <si>
+    <t>6a4ffdbe1ed0f8840e14b6db4bff9760bc987d5625e5201292b08aed70857871</t>
   </si>
   <si>
     <t>HDLO+6gqDKL6E1jY/yWe9Hplo2WEmku01/xcGjkY9NVTEr68XT2ZpqZF91a1D9JbnKkJg1UuljvPQDEfKRYAitM=</t>
   </si>
   <si>
-    <t>./qr/certificate_Петро_Петрович_bitcoin_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Біткоїн та криптовалюти</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6a4ffdbe1ed0f8840e14b6db4bff9760bc987d5625e5201292b08aed70857871</t>
+    <t>https://drive.google.com/file/d//view</t>
   </si>
   <si>
     <t>25.06.2015</t>
   </si>
   <si>
-    <t>Петро Петрович Воробієнко</t>
+    <t>Cryptocurrencies and Distributed Systems</t>
   </si>
   <si>
     <t>HL/S5ow1QPozfKwI1cDRfp+h8sLtxXuxGlTDhhX9Rk8OYiSML1LOd3RwysGcf0ZTK3oLyrYpOiW7SgN6uB2ZYGE=</t>
   </si>
   <si>
-    <t>./qr/certificate_Nikita_Magda__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Cryptocurrencies and Distributed Systems</t>
+    <t>10.05.2016</t>
+  </si>
+  <si>
+    <t>Nikita Magda</t>
   </si>
   <si>
     <t>120bd82d7172f419e94a36c0569d138e9b446a64fab789c568eeacd4d2caa09d</t>
   </si>
   <si>
-    <t>10.05.2016</t>
-  </si>
-  <si>
-    <t>Nikita Magda</t>
-  </si>
-  <si>
     <t>Нестеров Максим</t>
   </si>
   <si>
@@ -94,31 +91,25 @@
     <t>HLC5z4t8xC2YGKI5mLBpvDsQ3DOM3PbbILeTlOKwjBm4K0esTGfEknzQuCJ2yEB6ovYnuMtL+MmBHQck4r/Og7Q=</t>
   </si>
   <si>
-    <t>./qr/certificate_Нестеров_Максим__QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>G68tQOmxtEYSkwR0sAY0ML8dBFo2Wi5mIbiy/fK07in9KXs9kunnFY/GlAbA/kda8OlqjC0Lk97BBUjUuPnTpHk=</t>
   </si>
   <si>
-    <t>./qr/certificate_Alexey_Shendrick__QR_codecreate.svg</t>
+    <t>Alexey Shendrick</t>
   </si>
   <si>
     <t>713facacdbf8f652c8610afd6e64092c8427e1ab7444e96bc7e943ded9a5dd29</t>
   </si>
   <si>
-    <t>Alexey Shendrick</t>
+    <t>bc62e9ab6329532534ace6fe4d36515ce315511d36a0a2420647ddb8d28daa38</t>
+  </si>
+  <si>
+    <t>HK6wLdEeplEYXJCkmuaJlVdEHn86MGUCs4DDpbEd93LNV2ZF6etTLCUq6k5abJlgfDVKnjx9yOW4QN5HVbwJDj4=</t>
   </si>
   <si>
     <t>Anastasia Sapozhkova</t>
   </si>
   <si>
-    <t>HK6wLdEeplEYXJCkmuaJlVdEHn86MGUCs4DDpbEd93LNV2ZF6etTLCUq6k5abJlgfDVKnjx9yOW4QN5HVbwJDj4=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Anastasia_Sapozhkova__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>bc62e9ab6329532534ace6fe4d36515ce315511d36a0a2420647ddb8d28daa38</t>
+    <t>Den Galkin</t>
   </si>
   <si>
     <t>3e163d56162b3979e4badaf8d8fbfeec9629b8942206f4f2a3f91c147016cb09</t>
@@ -127,48 +118,33 @@
     <t>GzNRug/B6l+rL3to9AZ/VXpmusTsWvucAR9DOc2FTvxrM93KfyaXy/tA1JNI2m3n6U6h0HTVd5LDJ42ktB0U0wI=</t>
   </si>
   <si>
-    <t>./qr/certificate_Den_Galkin__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Den Galkin</t>
-  </si>
-  <si>
     <t>G/OqvWSw7yJjGNtQrDOgmqM+KDGFPtg2ik0kjJI3j4VcUnwk8Er+CGUs7gv6f0fzp9aYI8HWFOe1JYwKeX4iB9o=</t>
   </si>
   <si>
-    <t>./qr/certificate_Daniyil_Yakovlev__QR_codecreate.svg</t>
+    <t>Daniyil Yakovlev</t>
   </si>
   <si>
     <t>891f08e57eb1bd3bea4e169b1df313875b2d3fd48811754e675eea95bb2b8412</t>
   </si>
   <si>
-    <t>Daniyil Yakovlev</t>
+    <t>HFwp//oNPDU4M9oHCqEUpLHoBO+T79UoW0yCBU00B7CAaH3b/yUVFO8KZd020njZS2MqV8d4gU92CV7PwMy3l6Q=</t>
   </si>
   <si>
     <t>Алексей Демидов</t>
   </si>
   <si>
-    <t>HFwp//oNPDU4M9oHCqEUpLHoBO+T79UoW0yCBU00B7CAaH3b/yUVFO8KZd020njZS2MqV8d4gU92CV7PwMy3l6Q=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Алексей_Демидов__QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>c590c783aa219fbe06df5ed529bb01516823edee562bfa23cd9b2cf6e93b061e</t>
   </si>
   <si>
-    <t>./qr/certificate_Анатолий_Дедов__QR_codecreate.svg</t>
+    <t>G1pZdlCrJdkeNY36bRW+19+z8QM+FB5hoRGkvwdbEQkzYjL8dY0VCVAEzrHmA0RjSxDq8sPPcBb0z7gDyiSNUMQ=</t>
+  </si>
+  <si>
+    <t>Анатолий Дедов</t>
   </si>
   <si>
     <t>6819c42faf3df4b54606b2271608fdb78e2bce3a9f203353d151ec15a514655d</t>
   </si>
   <si>
-    <t>G1pZdlCrJdkeNY36bRW+19+z8QM+FB5hoRGkvwdbEQkzYjL8dY0VCVAEzrHmA0RjSxDq8sPPcBb0z7gDyiSNUMQ=</t>
-  </si>
-  <si>
-    <t>Анатолий Дедов</t>
-  </si>
-  <si>
     <t>Денис Руденко</t>
   </si>
   <si>
@@ -178,7 +154,7 @@
     <t>HOuQkxXy/PqMOZJFmEUoMQk95GdnTEdDxzlbCmyKlOZmDvKXPg/DKRRZ4kEEvI30D+swVXxp4x8eKy1TYChtps8=</t>
   </si>
   <si>
-    <t>./qr/certificate_Денис_Руденко__QR_codecreate.svg</t>
+    <t>Illia Fariatiev</t>
   </si>
   <si>
     <t>fda42cc06646502437e9202623114e5b97772cd844883aa81d87f1b74d2166d6</t>
@@ -187,12 +163,6 @@
     <t>G1RRBhBcOU6M8nvMrq1O5P7aq2wiUecvqkXw/SoQk+GOLYc0oML5nQiOMrDAiM90Q67nNRLBMjlL8RfqtQngLZ8=</t>
   </si>
   <si>
-    <t>./qr/certificate_Illia_Fariatiev__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Illia Fariatiev</t>
-  </si>
-  <si>
     <t>Костюк Александр</t>
   </si>
   <si>
@@ -202,30 +172,21 @@
     <t>G6l/nUfobqeYO+SaS/PyhLMSJWjouG2QrzL8m9JyLZPmdXpYmDUXWPL30/Vaz60KIPhLXWqj6JP2YoqtYXmpn9k=</t>
   </si>
   <si>
-    <t>./qr/certificate_Костюк_Александр__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Марина_Боровая__QR_codecreate.svg</t>
+    <t>G3CfLZYX4HzXNNASC36O1805sLJKVdL2UWzcwOt1+J+mZwe+2/x49eTPU3e2hdytEDtjniiqAqXtnUEL+7EEyVM=</t>
+  </si>
+  <si>
+    <t>Марина Боровая</t>
   </si>
   <si>
     <t>9b118e6f29f1ede241719c388e04f48ad065c0d609e5d2e9e80bce34de7db5ab</t>
   </si>
   <si>
-    <t>G3CfLZYX4HzXNNASC36O1805sLJKVdL2UWzcwOt1+J+mZwe+2/x49eTPU3e2hdytEDtjniiqAqXtnUEL+7EEyVM=</t>
-  </si>
-  <si>
-    <t>Марина Боровая</t>
-  </si>
-  <si>
     <t>5c1b9e808df46c68b681502cd50b75cf67b10511258fcf935299a6126efa5f32</t>
   </si>
   <si>
     <t>G3+B366TAXptnN3HvQySms9KyzVyfDsYIXw3O8Lw3Q6DdbZU0hTkIcnc0CTYsgjyxaTjGqf+1uDrdEWWYpXgpc4=</t>
   </si>
   <si>
-    <t>./qr/certificate_Мордвинов_Роман__QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Мордвинов Роман Игоревич</t>
   </si>
   <si>
@@ -235,36 +196,27 @@
     <t>G4Jpj2CKvbUWopbxx+r1S4P4a00i1vVFiWxaDaid3qXMd+O3iUkAcnZLIXUHDkeeObPXvwnDyWfVdP81UEiVhN8=</t>
   </si>
   <si>
-    <t>./qr/certificate_Сергей_Романько__QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Сергей Романько</t>
   </si>
   <si>
     <t>G5UswIvpVEAXG7zWhMchCB6uvXSRacPk9rNvBDGtXpCjMRkXkOvyNsz3nz5I+OHrYByOypWdRVomNhRH7wBxt98=</t>
   </si>
   <si>
-    <t>./qr/certificate_Синельников_Александр__QR_codecreate.svg</t>
+    <t>Синельников Александр</t>
   </si>
   <si>
     <t>7ab727f74724666241dae770f32d974d84413570bcebc4fce3f9040aceedd99d</t>
   </si>
   <si>
-    <t>Синельников Александр</t>
+    <t>G4JMoj4xVjoSztKT0vJkm89W+TB3IA5K/94xv0+kLibqblxl3tfwpnqbdoeMFikP+MhqLYT3ik6COvUNbPj0iVk=</t>
+  </si>
+  <si>
+    <t>Скрипник Александр</t>
   </si>
   <si>
     <t>647a501ba7b055539a366166bc75563c70b486be75915eae5c7f8867ae2fee47</t>
   </si>
   <si>
-    <t>G4JMoj4xVjoSztKT0vJkm89W+TB3IA5K/94xv0+kLibqblxl3tfwpnqbdoeMFikP+MhqLYT3ik6COvUNbPj0iVk=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Скрипник_Александр__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Скрипник Александр</t>
-  </si>
-  <si>
     <t>Солонский Александр</t>
   </si>
   <si>
@@ -274,9 +226,6 @@
     <t>HJl2ppwA2A8OAdeoTUQgSeFpehYnbukxEkKsCk8a9B4cA67t4VuZQFywBceNl4+PyteA/KbcDlSe0tpcE0uy6KE=</t>
   </si>
   <si>
-    <t>./qr/certificate_Солонский_Александр__QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>31.10.2016</t>
   </si>
   <si>
@@ -289,21 +238,15 @@
     <t>HNTazPdprjLP4Yf9ZgRIBFtjR6r25k2krvvvcDmOBhT6JfM8SxjU+De2Q5fzGm4VHpNMegOp06EnNohbpzpEMI4=</t>
   </si>
   <si>
-    <t>./qr/certificate_Anton_Zaporozhchenko__QR_codecreate.svg</t>
+    <t>644ade322b6ff6e78ca7a495cd2c7ae7c0b581de4066b8e2d009207b187f68bf</t>
+  </si>
+  <si>
+    <t>HJvFHdX5AJ/12PGL/ZqPsFvR5l1juzABjhdh9F/yKmyGNvsaHRsfmbR3HN3J1aLMHgGgTWiTuTKqMogk34LhS8g=</t>
   </si>
   <si>
     <t>Oleksiy Ponomorev</t>
   </si>
   <si>
-    <t>HJvFHdX5AJ/12PGL/ZqPsFvR5l1juzABjhdh9F/yKmyGNvsaHRsfmbR3HN3J1aLMHgGgTWiTuTKqMogk34LhS8g=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Oleksiy_Ponomorev__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>644ade322b6ff6e78ca7a495cd2c7ae7c0b581de4066b8e2d009207b187f68bf</t>
-  </si>
-  <si>
     <t>Pavel Brilliant</t>
   </si>
   <si>
@@ -313,18 +256,12 @@
     <t>G0QqHpt8SIjtEhZqu8ZwIdhaXdZLvLGNQMQTrINPsoNmdYf0Yp9854j+mcSOrLJh/dpq6aGZergC2+OcIJmIy5I=</t>
   </si>
   <si>
-    <t>./qr/certificate_Pavel_Brilliant__QR_codecreate.svg</t>
+    <t>HNthdNWPwGmVn+cxNWfoRfScs/fEnlCP9frX7t9Nc9waZeEkM3q1HPejLpswg7Zgr9y6nAgNqt4tQ5FnVGqczlc=</t>
   </si>
   <si>
     <t>Volodymyr Kavetskyy</t>
   </si>
   <si>
-    <t>HNthdNWPwGmVn+cxNWfoRfScs/fEnlCP9frX7t9Nc9waZeEkM3q1HPejLpswg7Zgr9y6nAgNqt4tQ5FnVGqczlc=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Volodymyr_Kavetskyy__QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>4792c452f46dcad5dc28891f4618cba51ac5048016423cee0a1f67caf0c0ec25</t>
   </si>
   <si>
@@ -334,51 +271,45 @@
     <t>G8QdtgHByifGkRpvkwoyqyHYBnvngvqGpsE0+OYg0l4/alH5hKrukluT0vymRI89FuPQaP5NZXhJw5qBqr/o2SQ=</t>
   </si>
   <si>
-    <t>./qr/certificate_Vladyslav_Minakov__QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Vladyslav Minakov</t>
   </si>
   <si>
+    <t>03.03.2017</t>
+  </si>
+  <si>
+    <t>Yevheniia Shchypeleva</t>
+  </si>
+  <si>
+    <t>0521a62341bdf875b13cb846d58424a231c6d67e70d90e61d1a88a7b586c641e</t>
+  </si>
+  <si>
     <t>HA2ozpf6FmCR9/D/F1XgLiiwPlUjJLoag15bW5+L4fQHD0Fzs7c7/2KGC/bsQG8Qb9PP7XBe0ZLiDxxYN1sfvlc=</t>
   </si>
   <si>
-    <t>./qr/certificate_Yevheniia_Shchypeleva__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>0521a62341bdf875b13cb846d58424a231c6d67e70d90e61d1a88a7b586c641e</t>
-  </si>
-  <si>
-    <t>03.03.2017</t>
-  </si>
-  <si>
-    <t>Yevheniia Shchypeleva</t>
+    <t>HOcOQLZi/0Hj7wI2HfEnZo9/I0BIcJlvSIj0kM1p52IeZu906yz7HH82BuKoZn4vsU1NaeozhmLhrvaLuFl4axo=</t>
   </si>
   <si>
     <t>Kolhatin Andrii</t>
   </si>
   <si>
-    <t>./qr/certificate_Kolhatin_Andrii__QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>4f48e4e99c3da0fb42caf31d69a0ba79d78a07c30db4f14beea24fa33f90268f</t>
   </si>
   <si>
-    <t>HOcOQLZi/0Hj7wI2HfEnZo9/I0BIcJlvSIj0kM1p52IeZu906yz7HH82BuKoZn4vsU1NaeozhmLhrvaLuFl4axo=</t>
+    <t>d4b5738e77864e53ce128a0840951b19f7a9972ca4e45be665c7eb486a98346c</t>
   </si>
   <si>
     <t>G9GctEnd76pKgGDyI7+aE9V09Cbs9aumDPiqIQigvacdBmKIzpoQDCwHI7E+a/k9BOzv+g7d0xz+Gge0BLfJFfQ=</t>
   </si>
   <si>
-    <t>./qr/certificate_Heorhii_Kholodov__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>d4b5738e77864e53ce128a0840951b19f7a9972ca4e45be665c7eb486a98346c</t>
-  </si>
-  <si>
     <t>Heorhii Kholodov</t>
   </si>
   <si>
+    <t>Blockchain and Distributed Systems</t>
+  </si>
+  <si>
+    <t>G+TKDQRHr+0M88vwYCpAR1HxlsZ9Z7wGKXvhaOHBU8VVVsZ6D827dqlCB+/VqOuSoiNUl2Q4njEuMlyVU8acWg0=</t>
+  </si>
+  <si>
     <t>30.05.2018</t>
   </si>
   <si>
@@ -388,13 +319,7 @@
     <t>4f3f959ddb01c9c60ac6dfe9771f8f47dfc824c63c8875b96ea038108ea9ad82</t>
   </si>
   <si>
-    <t>G+TKDQRHr+0M88vwYCpAR1HxlsZ9Z7wGKXvhaOHBU8VVVsZ6D827dqlCB+/VqOuSoiNUl2Q4njEuMlyVU8acWg0=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Aleksandr_Gnatyuk_distributed_system_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Blockchain and Distributed Systems</t>
+    <t>Aleksandr Kurbatov</t>
   </si>
   <si>
     <t>a51bf90f03e9a9966a7b4bac03c15b0c9ff3d89bf2d0f667bab7c0721ae133e4</t>
@@ -403,10 +328,7 @@
     <t>HEGH5/OOhT4reguIiiTH6APFTbnlV5C1KUyZ1pDo2cj6OGuhq/LbQm/JPTRM/O7tZRuIRfzN9JFsrrjCWCFPlk4=</t>
   </si>
   <si>
-    <t>./qr/certificate_Aleksandr_Kurbatov_distributed_system_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Aleksandr Kurbatov</t>
+    <t>G3ZO9bxTgtB/7Fa9EI72atZVXvh2Ad/AFoyzzevZ8ZobO83vZr+y2kqGwnGR6W3RrWH6kTuo4FsGrD74ILRPfEY=</t>
   </si>
   <si>
     <t>Aleksandr Ivanov</t>
@@ -415,30 +337,18 @@
     <t>61e95fea0ae6e1feb6707d2d3c0f4e1c8c9c13f4b7b78281e6f31d6cc38d495d</t>
   </si>
   <si>
-    <t>G3ZO9bxTgtB/7Fa9EI72atZVXvh2Ad/AFoyzzevZ8ZobO83vZr+y2kqGwnGR6W3RrWH6kTuo4FsGrD74ILRPfEY=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Aleksandr_Ivanov_distributed_system_QR_codecreate.svg</t>
+    <t>0002559ec4d84de76125e921c7f0529fa0ba815378d1bf1d1f15d4858b64cc2a</t>
+  </si>
+  <si>
+    <t>G6PuaRb177RpKrDmAjukXeT/Pov30l8TdCMgBJErT1YwH6DqSeI9ff2Z+uuJmeqveGXDYUhbYEhDxKg1jEaOK3E=</t>
   </si>
   <si>
     <t>Artyom Ahmetzyanov</t>
   </si>
   <si>
-    <t>0002559ec4d84de76125e921c7f0529fa0ba815378d1bf1d1f15d4858b64cc2a</t>
-  </si>
-  <si>
-    <t>G6PuaRb177RpKrDmAjukXeT/Pov30l8TdCMgBJErT1YwH6DqSeI9ff2Z+uuJmeqveGXDYUhbYEhDxKg1jEaOK3E=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Artyom_Ahmetzyanov_distributed_system_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Oleksii Khramov</t>
   </si>
   <si>
-    <t>./qr/certificate_Oleksii_Khramov_distributed_system_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>4b7a3aafcdb6a121a2ad88fb96a81eead5c3afa1a62811d577f4ec1c0dcbeff3</t>
   </si>
   <si>
@@ -451,22 +361,19 @@
     <t>HAt2BcTILIRTPMZAwC+3r/wauy6mFamx0lLEvPl8T8u8X9L6TNJ2cd8B6X1E3f2E4izbyj19WA5Tr9VyW1AY1Qg=</t>
   </si>
   <si>
-    <t>./qr/certificate_Nodar_Alyoshin_distributed_system_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Nodar Alyoshin</t>
   </si>
   <si>
+    <t>Marina Osadchuk</t>
+  </si>
+  <si>
     <t>6a808d3f71a4b54e6a600a385a7ff8fd8c40714468cbab6bf0c28c1b727e1776</t>
   </si>
   <si>
     <t>G+SXoVDF+C1xZEypC8G1DkMNZU2K/YTniKoPmEOKvao7SAs1KY2p8RFoJlol9Hi5x+ZnLMocF64cXyB82fj4/co=</t>
   </si>
   <si>
-    <t>./qr/certificate_Marina_Osadchuk_distributed_system_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Marina Osadchuk</t>
+    <t>HONq+40rWWcZg2ep51dVOeDlcPxRzZyoFaRcEx/kXFVcKkNrgAJWpl5iTfkoY7ClsA9dM+gU0ZZIXMolgSNmuIE=</t>
   </si>
   <si>
     <t>Konstantin Nechvolod</t>
@@ -475,27 +382,15 @@
     <t>92bbf7707fb85ceb1820890a6a926a406a05cbcfffb30a1d58257b137f355767</t>
   </si>
   <si>
-    <t>HONq+40rWWcZg2ep51dVOeDlcPxRzZyoFaRcEx/kXFVcKkNrgAJWpl5iTfkoY7ClsA9dM+gU0ZZIXMolgSNmuIE=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Konstantin_Nechvolod_distributed_system_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Ilya Svetaylo</t>
   </si>
   <si>
+    <t>fba37e527897160fa39ec89582d8e356058ad871219a5637760d40cd08367e88</t>
+  </si>
+  <si>
     <t>HKkfJL99tKlg2eavVbzwdMxgOf61qj23+C38oRfT9S7yAurKw4uk38Arvj54gJ4diOc7XAAJJWI5WZpjkH+GVD4=</t>
   </si>
   <si>
-    <t>./qr/certificate_Ilya_Svetaylo_distributed_system_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>fba37e527897160fa39ec89582d8e356058ad871219a5637760d40cd08367e88</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Dmytro_Mandych_distributed_system_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>943b36a0328f032a914c85d57f33994bc8c715c5487b130d26735083dd90a6da</t>
   </si>
   <si>
@@ -505,22 +400,22 @@
     <t>Dmytro Mandych</t>
   </si>
   <si>
+    <t>Basic Level in Decentralized Technologies</t>
+  </si>
+  <si>
     <t>26.05.2020</t>
   </si>
   <si>
     <t>Petr Murzin</t>
   </si>
   <si>
+    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
+  </si>
+  <si>
     <t>HBzaIo/6pGkl+lxuK93TpLDR3J0fQnJuLF/UvSWu/DnCBGypnDxHHN+9YQPv6mCzEqy4c4ztULeBbX6umqneJbM=</t>
   </si>
   <si>
-    <t>./qr/certificate_Petr_Murzin_decentralize_technologies_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Basic Level in Decentralized Technologies</t>
-  </si>
-  <si>
-    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
+    <t>HJg/1FFp+OhLbPPswjILag3FY2WMU4+XcI04Ns6LB9wmLexAfWDQnRgiXTtjkmQihRemlxaeqR6ftVepPZNrHBo=</t>
   </si>
   <si>
     <t>28.05.2020</t>
@@ -529,13 +424,13 @@
     <t>Lovkin Ivan</t>
   </si>
   <si>
-    <t>./qr/certificate_Lovkin_Ivan_decentralize_technologies_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
   </si>
   <si>
-    <t>HJg/1FFp+OhLbPPswjILag3FY2WMU4+XcI04Ns6LB9wmLexAfWDQnRgiXTtjkmQihRemlxaeqR6ftVepPZNrHBo=</t>
+    <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
+  </si>
+  <si>
+    <t>HJncl4kaqw9zTObNyjKooaqcPCdEuHz5xHFvcd3MX5F8HVTSPlpFPcHe/I4J51+VrDAssyv3ithaKinCMpRryqA=</t>
   </si>
   <si>
     <t>30.05.2020</t>
@@ -544,88 +439,64 @@
     <t>Nikita Moskovkin</t>
   </si>
   <si>
-    <t>HJncl4kaqw9zTObNyjKooaqcPCdEuHz5xHFvcd3MX5F8HVTSPlpFPcHe/I4J51+VrDAssyv3ithaKinCMpRryqA=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Nikita_Moskovkin_decentralize_technologies_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
-  </si>
-  <si>
     <t>03.06.2020</t>
   </si>
   <si>
     <t>Valeriy Gello</t>
   </si>
   <si>
+    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
+  </si>
+  <si>
     <t>Gzw/HIBgJ7KVFS7QmDgYWxq8XjKW4lAILc3sROoFzfxqWvK4tYRyGDb0ZvJKQe3xHaFC2CUeutLZSOTbfTa0QV0=</t>
   </si>
   <si>
-    <t>./qr/certificate_Valeriy_Gello_decentralize_technologies_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
+    <t>HP41UyoLCOMLuOEIo42MuFafQWcp0t4i6LBAgNz75cNPYOBdXopZM+It2/Be2dr0ienxZVjSb3zJztSjlaD54l0=</t>
+  </si>
+  <si>
+    <t>21.08.2020</t>
+  </si>
+  <si>
+    <t>Elizabeth Gurieva</t>
   </si>
   <si>
     <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
   </si>
   <si>
-    <t>HP41UyoLCOMLuOEIo42MuFafQWcp0t4i6LBAgNz75cNPYOBdXopZM+It2/Be2dr0ienxZVjSb3zJztSjlaD54l0=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Elizabeth_Gurieva_decentralize_technologies_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>21.08.2020</t>
-  </si>
-  <si>
-    <t>Elizabeth Gurieva</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Alexander_Zhovnuvaty_decentralize_technologies_QR_codecreate.svg</t>
+    <t>HCzXH2Zbj4gbKDjETOQGCWS+XxeEZZMPOew3MUhUr0HhWixJ7eLggTl7cydDoD6sMmgIYDMN5sRHQ+XJ/Fvvb3Q=</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>Alexander Zhovnuvaty</t>
   </si>
   <si>
     <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
   </si>
   <si>
-    <t>HCzXH2Zbj4gbKDjETOQGCWS+XxeEZZMPOew3MUhUr0HhWixJ7eLggTl7cydDoD6sMmgIYDMN5sRHQ+XJ/Fvvb3Q=</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>Alexander Zhovnuvaty</t>
-  </si>
-  <si>
     <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
   </si>
   <si>
     <t>HJJvBuSIMkoiAO+sC8QBznqFcgY8LSD1Gw6CvtwJSVJLYoihwr5NrQvIzV7l2SoU5cbCU+FRL/3euoLPhxfQyYM=</t>
   </si>
   <si>
-    <t>./qr/certificate_Nikolay_Scherbakov_decentralize_technologies_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Nikolay Scherbakov</t>
   </si>
   <si>
     <t>G4fHhUf678fe0keVwns3h0B7eDLW0jQOMkxJVRg9DwgKNOIjAgksa+fZ5mJ9Ojst1bHp2zGQfgVdtVILW+ZLpzY=</t>
   </si>
   <si>
-    <t>./qr/certificate_Anonymous_decentralize_technologies_QR_codecreate.svg</t>
+    <t>16.09.2020</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
   </si>
   <si>
     <t>b5533ac43186975dee86b708503330e9a34208986f3ee7e765f95605a009fe15</t>
   </si>
   <si>
-    <t>16.09.2020</t>
-  </si>
-  <si>
-    <t>Anonymous</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Aleksandr_Khomutov_decentralize_technologies_QR_codecreate.svg</t>
+    <t>Aleksandr Khomutov</t>
   </si>
   <si>
     <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
@@ -637,27 +508,21 @@
     <t>17.09.2020</t>
   </si>
   <si>
-    <t>Aleksandr Khomutov</t>
-  </si>
-  <si>
     <t>12.29.2021</t>
   </si>
   <si>
     <t>Tetiana Diachuk</t>
   </si>
   <si>
+    <t>c945a6a47e8cac4e234f6e7d94fbc0aa49797ca87328bf005829d8395ec1d935</t>
+  </si>
+  <si>
+    <t>G3gYwhzI5+ZXB2kDCeqmw7ZIyAfM2VyNCo7rqfK6oErwXzOgVWTXTB2Y0nQTEsPVbu21i0aXTcjj1/cRs4q1Eh8=</t>
+  </si>
+  <si>
     <t>Beginner at theoretical aspects blockchain technology</t>
   </si>
   <si>
-    <t>c945a6a47e8cac4e234f6e7d94fbc0aa49797ca87328bf005829d8395ec1d935</t>
-  </si>
-  <si>
-    <t>G3gYwhzI5+ZXB2kDCeqmw7ZIyAfM2VyNCo7rqfK6oErwXzOgVWTXTB2Y0nQTEsPVbu21i0aXTcjj1/cRs4q1Eh8=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Tetiana_Diachuk_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Yatskiv Vasyl</t>
   </si>
   <si>
@@ -667,7 +532,10 @@
     <t>HK7waE27kA6KJwApBM+T4LAk4aZqaE9IPDkBCxSy2kIEIufgsqcxvQ2rz19wEhtVeFadLyIdaeqHRdUIesIFeEY=</t>
   </si>
   <si>
-    <t>./qr/certificate_Yatskiv_Vasyl_blockchain_QR_codecreate.svg</t>
+    <t>24.05.2022</t>
+  </si>
+  <si>
+    <t>Viktoriia Kovalenko</t>
   </si>
   <si>
     <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
@@ -676,51 +544,33 @@
     <t>HA5BwNFM/ySsemkCY6OpyYzGN2ynKMEaM8GLSihU2F8fIafDwOkoIh2PLwj1IdJ/pBYdBTic+Uho+017ECKjRNw=</t>
   </si>
   <si>
-    <t>./qr/certificate_Viktoriia_Kovalenko_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>24.05.2022</t>
-  </si>
-  <si>
-    <t>Viktoriia Kovalenko</t>
+    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
+  </si>
+  <si>
+    <t>Gyyl8SW1Vhxv2Y9izEr5P1xTWFuhrsh50Oxsq0ivOCIGYnrgsSq0dVAL7d/fHlQr4HKC5tRuFWRMg3E275kdLJs=</t>
   </si>
   <si>
     <t>Artem Lytvynov</t>
   </si>
   <si>
-    <t>Gyyl8SW1Vhxv2Y9izEr5P1xTWFuhrsh50Oxsq0ivOCIGYnrgsSq0dVAL7d/fHlQr4HKC5tRuFWRMg3E275kdLJs=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Artem_Lytvynov_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
+    <t>HMm+QmgYSQqzfj+FdgRl1rWBCdL1S4zMjHo4rOlH25QqahXol4u5iYWlYHpMzEhlIt7GEVY6GQdrSoKBmssw+wE=</t>
+  </si>
+  <si>
+    <t>Taras Horun</t>
   </si>
   <si>
     <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
   </si>
   <si>
-    <t>HMm+QmgYSQqzfj+FdgRl1rWBCdL1S4zMjHo4rOlH25QqahXol4u5iYWlYHpMzEhlIt7GEVY6GQdrSoKBmssw+wE=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Taras_Horun_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Taras Horun</t>
+    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
+  </si>
+  <si>
+    <t>HHSTW6baeeBbUdAqBUVAabWN7FyZcmoGl0a2yh2qMvM/NuSSlL5WIC4i/X4xl4ENs/MIKGxn/Yx4AQEZ3Xlfo/I=</t>
   </si>
   <si>
     <t>Anastasiia Slota</t>
   </si>
   <si>
-    <t>HHSTW6baeeBbUdAqBUVAabWN7FyZcmoGl0a2yh2qMvM/NuSSlL5WIC4i/X4xl4ENs/MIKGxn/Yx4AQEZ3Xlfo/I=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Anastasiia_Slota_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
-  </si>
-  <si>
     <t>Yuriy Melnychuk</t>
   </si>
   <si>
@@ -730,7 +580,7 @@
     <t>HLFj51cOIDt1qrqje2PXKxrtUxp1hjlrNJxyE2uD8TbiO2UKvbAI+WmR/rmJ3zP1nURKyFD3zP7orsfABAqigkg=</t>
   </si>
   <si>
-    <t>./qr/certificate_Yuriy_Melnychuk_blockchain_QR_codecreate.svg</t>
+    <t>Vladyslav Mazur</t>
   </si>
   <si>
     <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
@@ -739,12 +589,6 @@
     <t>HLRD02/6NJ7khwmd96Pm2n54FdjUOODqTq0B65DPCuq8DMRfhgsgzJhWRLUNGmka6qsOAlRYHVYcaFdURPX1T8I=</t>
   </si>
   <si>
-    <t>./qr/certificate_Vladyslav_Mazur_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Vladyslav Mazur</t>
-  </si>
-  <si>
     <t>Hanna Zhurba</t>
   </si>
   <si>
@@ -754,7 +598,7 @@
     <t>G23T8nDlJs73D0lrECwkUe+mXYAtGdG9qjpSpWrU32pvXnfTe3DSqjCTi6rJFVs1Yzi2Fv3xylxp5MMR8p8VeRw=</t>
   </si>
   <si>
-    <t>./qr/certificate_Hanna_Zhurba_blockchain_QR_codecreate.svg</t>
+    <t>HNXgySG2kQ3jao+mFMaN3wfZFjEh5tNOLS3typW1XLu/AWlnZ9Wp8fZzONuZuA7Ld2EjAXGRflxYjsG/zZvNK1Y=</t>
   </si>
   <si>
     <t>Viktoriia Holoshchapova</t>
@@ -763,22 +607,19 @@
     <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
   </si>
   <si>
-    <t>HNXgySG2kQ3jao+mFMaN3wfZFjEh5tNOLS3typW1XLu/AWlnZ9Wp8fZzONuZuA7Ld2EjAXGRflxYjsG/zZvNK1Y=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Viktoriia_Holoshchapova_blockchain_QR_codecreate.svg</t>
+    <t>Nikita Liashko</t>
+  </si>
+  <si>
+    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
   </si>
   <si>
     <t>HOt76U1Fm6QnHoInt0Smt+gAS3rWPhQyfPREvrRvrghaKyti2vcVHkLzN6+M0BSZWjdpmAEmApjrFE22eEaMtqg=</t>
   </si>
   <si>
-    <t>./qr/certificate_Nikita_Liashko_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
-  </si>
-  <si>
-    <t>Nikita Liashko</t>
+    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
+  </si>
+  <si>
+    <t>HLH7WlOVLpwlLCX6S4IVdvTOunTc3QM9kpmouZBN7E+Lcd9pgsIPENfPEXdPoEc8HS/RGRqYc2669yxmo7TTYJI=</t>
   </si>
   <si>
     <t>27.05.2022</t>
@@ -787,57 +628,42 @@
     <t>Oleksandr Ishchuk</t>
   </si>
   <si>
-    <t>HLH7WlOVLpwlLCX6S4IVdvTOunTc3QM9kpmouZBN7E+Lcd9pgsIPENfPEXdPoEc8HS/RGRqYc2669yxmo7TTYJI=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Oleksandr_Ishchuk_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
+    <t>30.05.2022</t>
+  </si>
+  <si>
+    <t>Sofiia Zharkikh</t>
+  </si>
+  <si>
+    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
   </si>
   <si>
     <t>G5FFAmf/zMSc5uhA4w2of3MlPRCOl/nrSQ+EHORntQdSYge5OoFzcoywcRu+c8Al2Wn0vDT2gplOysnc9bkVKuU=</t>
   </si>
   <si>
-    <t>./qr/certificate_Sofiia_Zharkikh_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
-  </si>
-  <si>
-    <t>30.05.2022</t>
-  </si>
-  <si>
-    <t>Sofiia Zharkikh</t>
+    <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
+  </si>
+  <si>
+    <t>G3EE53pUm5VlTsbXpOwdRM63L+AGzsNrlmlAgBysqeKrQYUARmf1tqGI0uNbrYxulKqr9rUu9h6dgFSgLPwOlGo=</t>
   </si>
   <si>
     <t>Ruslan Ovsiienko</t>
   </si>
   <si>
-    <t>G3EE53pUm5VlTsbXpOwdRM63L+AGzsNrlmlAgBysqeKrQYUARmf1tqGI0uNbrYxulKqr9rUu9h6dgFSgLPwOlGo=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Ruslan_Ovsiienko_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
-  </si>
-  <si>
     <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
   </si>
   <si>
     <t>HPxkFc6eqX1zkacNhXG+sBNXjVxyuH1KHnrh6B9b6e9zKf6E3ZsKgi7KviRGqMsROOkCltpUiNYA5H0saLu0V90=</t>
   </si>
   <si>
-    <t>./qr/certificate_Andrii_Kolhatin_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>31.05.2022</t>
   </si>
   <si>
     <t>Andrii Kolhatin</t>
   </si>
   <si>
+    <t>HKh9/uLqPvIlWlda72xmPBh4gWJPa1GmeUiFqmMUsnO2QBuonHk6hSItvca+oWB7KVakP8zuuiZy5E/0gh/gju8=</t>
+  </si>
+  <si>
     <t>02.06.2022</t>
   </si>
   <si>
@@ -847,10 +673,10 @@
     <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
   </si>
   <si>
-    <t>HKh9/uLqPvIlWlda72xmPBh4gWJPa1GmeUiFqmMUsnO2QBuonHk6hSItvca+oWB7KVakP8zuuiZy5E/0gh/gju8=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Volodymyr_Beimuk_blockchain_QR_codecreate.svg</t>
+    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
+  </si>
+  <si>
+    <t>HNdZVHjhVExW+1Z4mN+Te9JfpSvd+YECTCgTdd9IJBnwfWKI4PH8xfVPvJr/RXDfqT+IXb/PUqhIJIfPeJabSSw=</t>
   </si>
   <si>
     <t>03.06.2022</t>
@@ -859,18 +685,6 @@
     <t>Nazarii Savorona</t>
   </si>
   <si>
-    <t>HNdZVHjhVExW+1Z4mN+Te9JfpSvd+YECTCgTdd9IJBnwfWKI4PH8xfVPvJr/RXDfqT+IXb/PUqhIJIfPeJabSSw=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Nazarii_Savorona_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Anton_Balykov_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
   </si>
   <si>
@@ -880,73 +694,61 @@
     <t>Anton Balykov</t>
   </si>
   <si>
+    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
+  </si>
+  <si>
+    <t>G1SiRU5KQYfkC7uOSmRY/P2fj1w6YEu683um5h9a6ws8dlGMOSqTHYb8K/dSVioO+bMlb07pm5VcF6kewoJVWDQ=</t>
+  </si>
+  <si>
     <t>06.06.2022</t>
   </si>
   <si>
     <t>Rodion Nazarov</t>
   </si>
   <si>
-    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
-  </si>
-  <si>
-    <t>G1SiRU5KQYfkC7uOSmRY/P2fj1w6YEu683um5h9a6ws8dlGMOSqTHYb8K/dSVioO+bMlb07pm5VcF6kewoJVWDQ=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Rodion_Nazarov_blockchain_QR_codecreate.svg</t>
+    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
+  </si>
+  <si>
+    <t>HFM+8AQaBKBacM/WH/81H8G44v3HvjExwoIa9nVWlJIta0EKSgLhtrtX6rhmpZuBXghHEk4mVxG+JFOMMQJ6+Cg=</t>
   </si>
   <si>
     <t>Denis Riabtsev</t>
   </si>
   <si>
-    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
-  </si>
-  <si>
-    <t>HFM+8AQaBKBacM/WH/81H8G44v3HvjExwoIa9nVWlJIta0EKSgLhtrtX6rhmpZuBXghHEk4mVxG+JFOMMQJ6+Cg=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Denis_Riabtsev_blockchain_QR_codecreate.svg</t>
+    <t>10.08.2022</t>
+  </si>
+  <si>
+    <t>Ahadzhan Piloian</t>
+  </si>
+  <si>
+    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
   </si>
   <si>
     <t>HFa8giAwmh7H5tdphmNqPT2w8NyaSL0zoQtw8vhcOO24OJF8JiXHbFSXbqsuWnvYikzoLh9en0UUOiDdQ/qu9iM=</t>
   </si>
   <si>
-    <t>./qr/certificate_Ahadzhan_Piloian_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
-  </si>
-  <si>
-    <t>10.08.2022</t>
-  </si>
-  <si>
-    <t>Ahadzhan Piloian</t>
+    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
   </si>
   <si>
     <t>HFDQ9yfu6U/EX1zGYWGMzuZllAhZ0Raovu7AG+Imc26Qa764AnS95/dSLQ7UQt9Go+rOAxw7mjemhwWS7bIocD8=</t>
   </si>
   <si>
-    <t>./qr/certificate_Andrii_Tsemko_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
-  </si>
-  <si>
     <t>16.08.2022</t>
   </si>
   <si>
     <t>Andrii Tsemko</t>
   </si>
   <si>
+    <t>HGl/gXuPtt8M/8bCdJUa4gMn1i0me6N1NxOC/kl1Kbk6C7d/5u4zhbOjiYqYU38DGRQSiXH25MVys1FzzN3uYAQ=</t>
+  </si>
+  <si>
     <t>Oleg Chaika</t>
   </si>
   <si>
-    <t>./qr/certificate_Oleg_Chaika_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
   </si>
   <si>
-    <t>HGl/gXuPtt8M/8bCdJUa4gMn1i0me6N1NxOC/kl1Kbk6C7d/5u4zhbOjiYqYU38DGRQSiXH25MVys1FzzN3uYAQ=</t>
+    <t>Yehor Podporinov</t>
   </si>
   <si>
     <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
@@ -955,12 +757,6 @@
     <t>G2xO7B4Q+hdYRxBzyQaDhdsQu08oTGo4BF52Bl9If0c4DJKDCtwS9qoZx5Lj/2WEX02RiGVb6G02slDylbdqLAo=</t>
   </si>
   <si>
-    <t>./qr/certificate_Yehor_Podporinov_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Yehor Podporinov</t>
-  </si>
-  <si>
     <t>Artem Litkevych</t>
   </si>
   <si>
@@ -970,18 +766,12 @@
     <t>HM6uF51YbAt3DbFxvVNTpeS9X1oDpHw0zFnNxLs999PuJNc1azg1gITStdzGKi8OvKjdT95PGN9f/sRqjNlY+2o=</t>
   </si>
   <si>
-    <t>./qr/certificate_Artem_Litkevych_blockchain_QR_codecreate.svg</t>
+    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
   </si>
   <si>
     <t>HOknl3bfOj6VWiF2cke75fBKUEhoJiAdgJIjzXMYR+mPe0Kx1XuF8nIHN+9jrnsbzNkPdUhb6jHrVKXTbhV8Q9w=</t>
   </si>
   <si>
-    <t>./qr/certificate_Vadim_Mokropulo_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
-  </si>
-  <si>
     <t>17.08.2022</t>
   </si>
   <si>
@@ -994,9 +784,6 @@
     <t>HCM9Lxm2HfN4TKyTb1Hswsn5VJpsxgiJW5R+SepjJ0UeRlgsboEmN4/JokRrXfcmW+0+luqqgSqpIF/cWkAGIW0=</t>
   </si>
   <si>
-    <t>./qr/certificate_Arsenii_Trybukh_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Arsenii Trybukh</t>
   </si>
   <si>
@@ -1006,64 +793,52 @@
     <t>G9Ch3H0JSIgK0D8+lUc+CVe5hh1/Qcz5M53LYvCPLGRtXm995jnkm8PhJ41ACFNTYNjNI1J86FZYJvp+vqILR7Y=</t>
   </si>
   <si>
-    <t>./qr/certificate_Khrystyna_Vysotska_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>18.08.2022</t>
   </si>
   <si>
     <t>Khrystyna Vysotska</t>
   </si>
   <si>
+    <t>G21MICmkB2iY2fm+JV0nz2xQiarIBwVrE/zcp7NtMHxLGDcy+b6eWyg24mbfLxrYGHmHI7f2Ifh18c4LBUx6jd8=</t>
+  </si>
+  <si>
     <t>Mykhailo Shcholkin</t>
   </si>
   <si>
     <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
   </si>
   <si>
-    <t>G21MICmkB2iY2fm+JV0nz2xQiarIBwVrE/zcp7NtMHxLGDcy+b6eWyg24mbfLxrYGHmHI7f2Ifh18c4LBUx6jd8=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mykhailo_Shcholkin_blockchain_QR_codecreate.svg</t>
+    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
+  </si>
+  <si>
+    <t>G69XJfmzHXDqV502Uhuy0UynJewLSZwOY17ZWoRWu+8fKZrLtItrl++E+920n1Az6u7sDFdBSFnUn8MMkLPmPrk=</t>
   </si>
   <si>
     <t>Sofiia Kireieva</t>
   </si>
   <si>
-    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
-  </si>
-  <si>
-    <t>G69XJfmzHXDqV502Uhuy0UynJewLSZwOY17ZWoRWu+8fKZrLtItrl++E+920n1Az6u7sDFdBSFnUn8MMkLPmPrk=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Sofiia_Kireieva_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
   </si>
   <si>
     <t>G2jP4FhVjFgaeIXACmuv4NrkTHbT4Pw2fsgVYqydLjTHTp2bFOhYi9tu99P7C6MSdtXuYAkVEk7jPkH9tPRKMPw=</t>
   </si>
   <si>
-    <t>./qr/certificate_Alena_Sporova_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>19.08.2022</t>
   </si>
   <si>
     <t>Alena Sporova</t>
   </si>
   <si>
+    <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
+  </si>
+  <si>
+    <t>HKdVLhA3gtAdaK2mauBkiowhnv2Evab2QPeel+p14+GqdfMA0rlCfRhIaFd8QEx1bwC62VO7N+ue3qNrejGq4vk=</t>
+  </si>
+  <si>
     <t>Nikita Masych</t>
   </si>
   <si>
-    <t>HKdVLhA3gtAdaK2mauBkiowhnv2Evab2QPeel+p14+GqdfMA0rlCfRhIaFd8QEx1bwC62VO7N+ue3qNrejGq4vk=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Nikita_Masych_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
+    <t>G5B51sOpUq18kepe35rMw9WicCE1gp4icmIBoo3zjy+TD06p5inlInQt1WomW0tvEcye2foVrcdcBHrMqnC9pfo=</t>
   </si>
   <si>
     <t>Mark Cherepovskyi</t>
@@ -1072,12 +847,6 @@
     <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
   </si>
   <si>
-    <t>G5B51sOpUq18kepe35rMw9WicCE1gp4icmIBoo3zjy+TD06p5inlInQt1WomW0tvEcye2foVrcdcBHrMqnC9pfo=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mark_Cherepovskyi_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Viacheslav Horbanov</t>
   </si>
   <si>
@@ -1087,37 +856,28 @@
     <t>HKpxDnYpWxDgjde7+Guu3BfglyLZHn8CSIxTn17IwxPuUfGHQDEVqrFM0MeyEBNAyZpkhKd/xI6fLRrcmAVWSDY=</t>
   </si>
   <si>
-    <t>./qr/certificate_Viacheslav_Horbanov_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>22.08.2022</t>
   </si>
   <si>
     <t>Oleksii Stepaniuk</t>
   </si>
   <si>
+    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
+  </si>
+  <si>
     <t>HHQI2fVR8mK2cT2CKboOJcWp2QYPiQNiw9VPCxmosNu9XigtlaKhIcX6aeB7MeRagImuPo4PKFwP3lV41PaiRWM=</t>
   </si>
   <si>
-    <t>./qr/certificate_Oleksii_Stepaniuk_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Kyrylo_Riabov_blockchain_QR_codecreate.svg</t>
+    <t>HIYr22IoaZsHMt8mZYzRPItPizb8Cgz+tML67na5URpbDhO5czzxTUfp5REntqVtSPZLPmkfi+E9apG20T11FHM=</t>
+  </si>
+  <si>
+    <t>Kyrylo Riabov</t>
   </si>
   <si>
     <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
   </si>
   <si>
-    <t>HIYr22IoaZsHMt8mZYzRPItPizb8Cgz+tML67na5URpbDhO5czzxTUfp5REntqVtSPZLPmkfi+E9apG20T11FHM=</t>
-  </si>
-  <si>
-    <t>Kyrylo Riabov</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Oleksandr_Kolesnyk_blockchain_QR_codecreate.svg</t>
+    <t>Oleksandr Kolesnyk</t>
   </si>
   <si>
     <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
@@ -1126,7 +886,10 @@
     <t>G4lD8X41oRFy7CW2bmIknZKml/cSa36IX+BQ6GED5YydUXmGRs4WyhEEQrk67wJ4e1gzQZpb86PNONSIkqmbihc=</t>
   </si>
   <si>
-    <t>Oleksandr Kolesnyk</t>
+    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
+  </si>
+  <si>
+    <t>G8uS3y3E18j4FkL7WCCPvfCy3xbdDx3VvFRySq8LNas5LNV8IZyf7dLuyzgiueQoYXv/VtG+7WybSGkWdEvMw88=</t>
   </si>
   <si>
     <t>23.08.2022</t>
@@ -1135,42 +898,24 @@
     <t>Nikita Chabaniuk</t>
   </si>
   <si>
-    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
-  </si>
-  <si>
-    <t>G8uS3y3E18j4FkL7WCCPvfCy3xbdDx3VvFRySq8LNas5LNV8IZyf7dLuyzgiueQoYXv/VtG+7WybSGkWdEvMw88=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Nikita_Chabaniuk_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>G9g/25PmJHzczdwBSSy0Zypc9ZTw+/+YXHbvvw/DHm/9W+MgQkve2zHsaohfLfd1pXPsRJ+laHxZzzZgleauDAs=</t>
   </si>
   <si>
-    <t>./qr/certificate_Amina_Yambulatova_blockchain_QR_codecreate.svg</t>
+    <t>Amina Yambulatova</t>
   </si>
   <si>
     <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
   </si>
   <si>
-    <t>Amina Yambulatova</t>
-  </si>
-  <si>
     <t>HGwq4A8p8OWC5Gh+teNqjrwCzbrT0mWdm2OuDoYtB3s1HgthxjnTOjy9hI+EerJD42qx4NTjmyKAB9cpY84rOKg=</t>
   </si>
   <si>
-    <t>./qr/certificate_Yegor_Chukanov_blockchain_QR_codecreate.svg</t>
+    <t>Yegor Chukanov</t>
   </si>
   <si>
     <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
   </si>
   <si>
-    <t>Yegor Chukanov</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Dmytro_Vynohradov_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
   </si>
   <si>
@@ -1183,31 +928,31 @@
     <t>Dmytro Vynohradov</t>
   </si>
   <si>
+    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
+  </si>
+  <si>
+    <t>HIqeKGpM6CeW69LC2KUeOJ9DRnIDBY+r995bjEVZo8pLDWXucjkEriUeL8WyPveeSxxPg7hM8PqDICAEPlVCouk=</t>
+  </si>
+  <si>
     <t>Mykhailo Sokolov</t>
   </si>
   <si>
-    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
-  </si>
-  <si>
-    <t>HIqeKGpM6CeW69LC2KUeOJ9DRnIDBY+r995bjEVZo8pLDWXucjkEriUeL8WyPveeSxxPg7hM8PqDICAEPlVCouk=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mykhailo_Sokolov_blockchain_QR_codecreate.svg</t>
+    <t>G8mavASwRAESd8slmxm1h9U4N6GoYmgCKDKXl8T/zpv6KTqrqhp1n8tXhH7flfqxI88ksENHVZ8D+dYALB3M5Xo=</t>
+  </si>
+  <si>
+    <t>25.08.2022</t>
+  </si>
+  <si>
+    <t>Illia Popov</t>
   </si>
   <si>
     <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
   </si>
   <si>
-    <t>G8mavASwRAESd8slmxm1h9U4N6GoYmgCKDKXl8T/zpv6KTqrqhp1n8tXhH7flfqxI88ksENHVZ8D+dYALB3M5Xo=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Illia_Popov_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>25.08.2022</t>
-  </si>
-  <si>
-    <t>Illia Popov</t>
+    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
+  </si>
+  <si>
+    <t>Gw56LuM5gYEPRCkhmZ6K29DG3idPfq6lawS2onGmpo38efTvJlIFfopETOm/W1WkS+UuYHQsremfscaqHR3acyY=</t>
   </si>
   <si>
     <t>26.08.2022</t>
@@ -1216,13 +961,7 @@
     <t>Mykola Gora</t>
   </si>
   <si>
-    <t>Gw56LuM5gYEPRCkhmZ6K29DG3idPfq6lawS2onGmpo38efTvJlIFfopETOm/W1WkS+UuYHQsremfscaqHR3acyY=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mykola_Gora_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
+    <t>Artem Levkin</t>
   </si>
   <si>
     <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
@@ -1231,10 +970,10 @@
     <t>G8ah5f2UjwoYEixl7OZKZrVAizGnQBy+lwuL+ammNcBqEjR8riRwunMmhjuzXKnQ8orFQJXmZhMvaCtDzItFhnw=</t>
   </si>
   <si>
-    <t>./qr/certificate_Artem_Levkin_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Artem Levkin</t>
+    <t>29.08.2022</t>
+  </si>
+  <si>
+    <t>Natalya Dolgova</t>
   </si>
   <si>
     <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
@@ -1243,57 +982,36 @@
     <t>G0ZjvUb5sgyD719aQ7ygiXigPsrGpMAmw0TdIjX2xBb4BuYLIXwlOY1LYnd5sdVo6jKKXK6g1s4UIJKuU8RPHew=</t>
   </si>
   <si>
-    <t>./qr/certificate_Natalya_Dolgova_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>29.08.2022</t>
-  </si>
-  <si>
-    <t>Natalya Dolgova</t>
+    <t>GzMrbbTOSSl0/ql8CiImmJSDgqgJUtSq87qEm3e4f1HUDlkuor0IcoFP2Jf9vSiQXbE3YJaOZ40DHqr8oSg+roc=</t>
   </si>
   <si>
     <t>Artem Zubrych</t>
   </si>
   <si>
-    <t>GzMrbbTOSSl0/ql8CiImmJSDgqgJUtSq87qEm3e4f1HUDlkuor0IcoFP2Jf9vSiQXbE3YJaOZ40DHqr8oSg+roc=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Artem_Zubrych_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
   </si>
   <si>
+    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
+  </si>
+  <si>
+    <t>HIhvyjj7WGrwrUbsuWPUTAKqKtxfC9u3gJ1V8w+AsfkMDrZmymnpA/ScCurlcuX7M6q7OXFso7OfbFtzTlNkx0E=</t>
+  </si>
+  <si>
     <t>30.08.2022</t>
   </si>
   <si>
     <t>Valentyna Lytvynova</t>
   </si>
   <si>
-    <t>./qr/certificate_Valentyna_Lytvynova_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
-  </si>
-  <si>
-    <t>HIhvyjj7WGrwrUbsuWPUTAKqKtxfC9u3gJ1V8w+AsfkMDrZmymnpA/ScCurlcuX7M6q7OXFso7OfbFtzTlNkx0E=</t>
+    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
+  </si>
+  <si>
+    <t>G2ZueU8SyB00Pru2Gbk4Y4zUXtkuEm3BwdBArAtr5mwqa3CSk8hS/tw/n3taWXsYOLN2wbMWQWcfsBiEFlUB3+Q=</t>
   </si>
   <si>
     <t>Eugene Petrikeev</t>
   </si>
   <si>
-    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
-  </si>
-  <si>
-    <t>G2ZueU8SyB00Pru2Gbk4Y4zUXtkuEm3BwdBArAtr5mwqa3CSk8hS/tw/n3taWXsYOLN2wbMWQWcfsBiEFlUB3+Q=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Eugene_Petrikeev_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Yurii_Poberezhnyi_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
   </si>
   <si>
@@ -1303,55 +1021,46 @@
     <t>Yurii Poberezhnyi</t>
   </si>
   <si>
+    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
+  </si>
+  <si>
+    <t>HAFRgVQFeujXBXYVTCe8VE2auw6Uz+L7Lzq6SSmMkvoEYyvkGFCp6L0hO5+CtccnYIEPL5r5hiDHuG6deADYunw=</t>
+  </si>
+  <si>
     <t>07.09.2022</t>
   </si>
   <si>
     <t>Alina Telnova</t>
   </si>
   <si>
-    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
-  </si>
-  <si>
-    <t>HAFRgVQFeujXBXYVTCe8VE2auw6Uz+L7Lzq6SSmMkvoEYyvkGFCp6L0hO5+CtccnYIEPL5r5hiDHuG6deADYunw=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Alina_Telnova_blockchain_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
   </si>
   <si>
     <t>Gxb5qLCO2gOVk0XmAl5V0xEK4mWcrjqA5qw51GpsOz7mIajkq6+QkZj9qyqPbzcd2vRlji2whyQPpa58B92Jpw4=</t>
   </si>
   <si>
-    <t>./qr/certificate_Oleksandra_Ivanova_database_QR_codecreate.svg</t>
+    <t>07.12.2022</t>
+  </si>
+  <si>
+    <t>Oleksandra Ivanova</t>
   </si>
   <si>
     <t>Theory of database organization and basic SQL</t>
   </si>
   <si>
-    <t>07.12.2022</t>
-  </si>
-  <si>
-    <t>Oleksandra Ivanova</t>
+    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
   </si>
   <si>
     <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
   </si>
   <si>
-    <t>./qr/certificate_Ilona_Shevchenko_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
-  </si>
-  <si>
     <t>08.12.2022</t>
   </si>
   <si>
     <t>Ilona Shevchenko</t>
   </si>
   <si>
-    <t>./qr/certificate_Ievgeniia_Bondar_database_QR_codecreate.svg</t>
+    <t>Ievgeniia Bondar</t>
   </si>
   <si>
     <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
@@ -1360,58 +1069,43 @@
     <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
   </si>
   <si>
-    <t>Ievgeniia Bondar</t>
+    <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
+  </si>
+  <si>
+    <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
   </si>
   <si>
     <t>Sofia Golets</t>
   </si>
   <si>
-    <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
-  </si>
-  <si>
-    <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Sofia_Golets_database_QR_codecreate.svg</t>
+    <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
+  </si>
+  <si>
+    <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
   </si>
   <si>
     <t>Mykyta Tsyvinskyi</t>
   </si>
   <si>
-    <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mykyta_Tsyvinskyi_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
+    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
+  </si>
+  <si>
+    <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
     <t>Cryptography and information security theory</t>
   </si>
   <si>
-    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
-  </si>
-  <si>
-    <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mykhailo_Sokolov_security_QR_codecreate.svg</t>
+    <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
   </si>
   <si>
     <t>09.12.2022</t>
   </si>
   <si>
-    <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mykhailo_Sokolov_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
   </si>
   <si>
-    <t>./qr/certificate_Kateryna_Hordiienko_database_QR_codecreate.svg</t>
+    <t>Kateryna Hordiienko</t>
   </si>
   <si>
     <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
@@ -1420,7 +1114,7 @@
     <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
-    <t>Kateryna Hordiienko</t>
+    <t>12.12.2022</t>
   </si>
   <si>
     <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
@@ -1429,60 +1123,39 @@
     <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
-    <t>./qr/certificate_Viacheslav_Horbanov_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>12.12.2022</t>
+    <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
+  </si>
+  <si>
+    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
   </si>
   <si>
     <t>Yuliia Aritkulova</t>
   </si>
   <si>
-    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Yuliia_Aritkulova_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
-  </si>
-  <si>
     <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
   </si>
   <si>
     <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
   </si>
   <si>
-    <t>./qr/certificate_Oleksandr_Yevtushenko_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Oleksandr Yevtushenko</t>
   </si>
   <si>
+    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
+  </si>
+  <si>
+    <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
+  </si>
+  <si>
     <t>Mariia Mahdalina</t>
   </si>
   <si>
-    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
-  </si>
-  <si>
-    <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mariia_Mahdalina_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
   </si>
   <si>
     <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
   </si>
   <si>
-    <t>./qr/certificate_Yehor_Podporinov_security_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Anastasia_Andreeva_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
   </si>
   <si>
@@ -1498,66 +1171,48 @@
     <t>Polina Reshetnikova</t>
   </si>
   <si>
+    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
+  </si>
+  <si>
     <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
   </si>
   <si>
-    <t>./qr/certificate_Polina_Reshetnikova_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Valentyna_Lytvynova_database_QR_codecreate.svg</t>
+    <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
   </si>
   <si>
     <t>93620030db08953cbf17468ffde46134834b7da10958b5174e935d4e324ce081</t>
   </si>
   <si>
-    <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
-  </si>
-  <si>
     <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
   </si>
   <si>
     <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
-    <t>./qr/certificate_Illia_Popov_security_QR_codecreate.svg</t>
+    <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
+  </si>
+  <si>
+    <t>14.12.2022</t>
   </si>
   <si>
     <t>b94492feb30efb7f94082666a936891a31a43de0e18af1aa8a110ef869532d93</t>
   </si>
   <si>
-    <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Yehor_Podporinov_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>14.12.2022</t>
+    <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
     <t>Pasha Charovatiy</t>
   </si>
   <si>
-    <t>./qr/certificate_Pasha_Charovatiy_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
   </si>
   <si>
-    <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
-  </si>
-  <si>
     <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
   </si>
   <si>
     <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
   </si>
   <si>
-    <t>./qr/certificate_Dmytro_Serhiienko_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Dmytro Serhiienko</t>
   </si>
   <si>
@@ -1567,21 +1222,15 @@
     <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
   </si>
   <si>
-    <t>./qr/certificate_Vladislav_Dmitrenko_security_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Vladislav Dmitrenko</t>
   </si>
   <si>
+    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
+  </si>
+  <si>
     <t>Marina Rindina</t>
   </si>
   <si>
-    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Marina_Rindina_security_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
   </si>
   <si>
@@ -1591,46 +1240,34 @@
     <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
   </si>
   <si>
-    <t>./qr/certificate_Nazar_Franko_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>15.12.2022</t>
   </si>
   <si>
     <t>Nazar Franko</t>
   </si>
   <si>
+    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
+  </si>
+  <si>
     <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
   </si>
   <si>
-    <t>./qr/certificate_Olha_Drahomeretska_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
-  </si>
-  <si>
     <t>Olha Drahomeretska</t>
   </si>
   <si>
+    <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
+  </si>
+  <si>
+    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
+  </si>
+  <si>
     <t>Maksym Cherniak</t>
   </si>
   <si>
-    <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
-  </si>
-  <si>
-    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Maksym_Cherniak_security_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
   </si>
   <si>
     <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Maksym_Cherniak__QR_codecreate.svg</t>
   </si>
 </sst>
 </file>
@@ -1942,3970 +1579,3970 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="J29" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
         <v>121</v>
       </c>
-      <c r="B35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>152</v>
-      </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J35" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
         <v>126</v>
       </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>160</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>161</v>
-      </c>
       <c r="J37" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="J38" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="J39" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="J40" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="J41" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="J42" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="J43" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="J44" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="J45" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="J46" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="J47" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="J48" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="J49" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="J50" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="J51" t="s">
-        <v>229</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="J52" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="J53" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="J54" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="J55" t="s">
-        <v>246</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="J56" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="J57" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="J58" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="J59" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="J60" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="J61" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="J62" t="s">
-        <v>271</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="J63" t="s">
-        <v>278</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="J64" t="s">
-        <v>282</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B65" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="J65" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="B66" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="J66" t="s">
-        <v>292</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="J67" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="J68" t="s">
-        <v>298</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="J69" t="s">
-        <v>303</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="J70" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="J71" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="B72" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="J72" t="s">
-        <v>318</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="B73" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="J73" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="J74" t="s">
-        <v>326</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="J75" t="s">
-        <v>330</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="B76" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="J76" t="s">
-        <v>336</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="B77" t="s">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="J77" t="s">
-        <v>340</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="B78" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="J78" t="s">
-        <v>343</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="B79" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="J79" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="J80" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="B81" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="J81" t="s">
-        <v>357</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>281</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>360</v>
+        <v>283</v>
       </c>
       <c r="J82" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="B83" t="s">
-        <v>366</v>
+        <v>285</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="J83" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="B84" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="J84" t="s">
-        <v>367</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>373</v>
+        <v>290</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="J85" t="s">
-        <v>375</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I86" t="s">
-        <v>376</v>
+        <v>294</v>
       </c>
       <c r="J86" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="J87" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="B88" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I88" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="J88" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="J89" t="s">
-        <v>392</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="B90" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I90" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
       <c r="J90" t="s">
-        <v>395</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>398</v>
+        <v>313</v>
       </c>
       <c r="B91" t="s">
-        <v>399</v>
+        <v>314</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>402</v>
+        <v>311</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I91" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="J91" t="s">
-        <v>401</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>398</v>
+        <v>313</v>
       </c>
       <c r="B92" t="s">
-        <v>406</v>
+        <v>315</v>
       </c>
       <c r="C92" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="J92" t="s">
-        <v>405</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I93" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="J93" t="s">
-        <v>409</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="B94" t="s">
-        <v>412</v>
+        <v>323</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>415</v>
+        <v>324</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I94" t="s">
-        <v>413</v>
+        <v>322</v>
       </c>
       <c r="J94" t="s">
-        <v>414</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>419</v>
+        <v>325</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="J95" t="s">
-        <v>418</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s">
-        <v>421</v>
+        <v>331</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>422</v>
+        <v>329</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I96" t="s">
-        <v>423</v>
+        <v>330</v>
       </c>
       <c r="J96" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="C97" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I97" t="s">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="J97" t="s">
-        <v>425</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>429</v>
+        <v>337</v>
       </c>
       <c r="B98" t="s">
-        <v>430</v>
+        <v>338</v>
       </c>
       <c r="C98" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>431</v>
+        <v>335</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I98" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="J98" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="B99" t="s">
-        <v>439</v>
+        <v>342</v>
       </c>
       <c r="C99" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>434</v>
+        <v>339</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I99" t="s">
-        <v>435</v>
+        <v>340</v>
       </c>
       <c r="J99" t="s">
-        <v>436</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="B100" t="s">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="C100" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>442</v>
+        <v>344</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I100" t="s">
-        <v>440</v>
+        <v>345</v>
       </c>
       <c r="J100" t="s">
-        <v>441</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="B101" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="C101" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>446</v>
+        <v>349</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I101" t="s">
-        <v>447</v>
+        <v>350</v>
       </c>
       <c r="J101" t="s">
-        <v>445</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="B102" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="C102" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I102" t="s">
-        <v>451</v>
+        <v>352</v>
       </c>
       <c r="J102" t="s">
-        <v>452</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="B103" t="s">
-        <v>453</v>
+        <v>356</v>
       </c>
       <c r="C103" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>456</v>
+        <v>354</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I103" t="s">
-        <v>454</v>
+        <v>355</v>
       </c>
       <c r="J103" t="s">
-        <v>455</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I104" t="s">
-        <v>459</v>
+        <v>358</v>
       </c>
       <c r="J104" t="s">
-        <v>460</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>461</v>
+        <v>361</v>
       </c>
       <c r="B105" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="C105" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>464</v>
+        <v>362</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I105" t="s">
-        <v>462</v>
+        <v>360</v>
       </c>
       <c r="J105" t="s">
-        <v>463</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>461</v>
+        <v>361</v>
       </c>
       <c r="B106" t="s">
-        <v>468</v>
+        <v>363</v>
       </c>
       <c r="C106" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>466</v>
+        <v>364</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>467</v>
+        <v>365</v>
       </c>
       <c r="J106" t="s">
-        <v>465</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>472</v>
+        <v>366</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="C107" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>469</v>
+        <v>367</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I107" t="s">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="J107" t="s">
-        <v>471</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>472</v>
+        <v>366</v>
       </c>
       <c r="B108" t="s">
-        <v>473</v>
+        <v>371</v>
       </c>
       <c r="C108" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>476</v>
+        <v>369</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I108" t="s">
-        <v>474</v>
+        <v>370</v>
       </c>
       <c r="J108" t="s">
-        <v>475</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>472</v>
+        <v>366</v>
       </c>
       <c r="B109" t="s">
-        <v>480</v>
+        <v>374</v>
       </c>
       <c r="C109" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>477</v>
+        <v>372</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I109" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="J109" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>472</v>
+        <v>366</v>
       </c>
       <c r="B110" t="s">
-        <v>481</v>
+        <v>377</v>
       </c>
       <c r="C110" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>482</v>
+        <v>375</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I110" t="s">
-        <v>483</v>
+        <v>376</v>
       </c>
       <c r="J110" t="s">
-        <v>484</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>472</v>
+        <v>366</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="C111" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>485</v>
+        <v>378</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I111" t="s">
-        <v>486</v>
+        <v>379</v>
       </c>
       <c r="J111" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>491</v>
+        <v>382</v>
       </c>
       <c r="B112" t="s">
-        <v>492</v>
+        <v>383</v>
       </c>
       <c r="C112" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>489</v>
+        <v>380</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I112" t="s">
-        <v>490</v>
+        <v>381</v>
       </c>
       <c r="J112" t="s">
-        <v>488</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>491</v>
+        <v>382</v>
       </c>
       <c r="B113" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="C113" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>496</v>
+        <v>385</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I113" t="s">
-        <v>494</v>
+        <v>386</v>
       </c>
       <c r="J113" t="s">
-        <v>495</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>491</v>
+        <v>382</v>
       </c>
       <c r="B114" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="C114" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I114" t="s">
-        <v>499</v>
+        <v>387</v>
       </c>
       <c r="J114" t="s">
-        <v>497</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>491</v>
+        <v>382</v>
       </c>
       <c r="B115" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="C115" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="H115" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I115" t="s">
-        <v>501</v>
+        <v>390</v>
       </c>
       <c r="J115" t="s">
-        <v>502</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>506</v>
+        <v>392</v>
       </c>
       <c r="B116" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>503</v>
+        <v>393</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I116" t="s">
-        <v>504</v>
+        <v>391</v>
       </c>
       <c r="J116" t="s">
-        <v>505</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>506</v>
+        <v>392</v>
       </c>
       <c r="B117" t="s">
-        <v>507</v>
+        <v>395</v>
       </c>
       <c r="C117" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>509</v>
+        <v>396</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>510</v>
+        <v>394</v>
       </c>
       <c r="J117" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>506</v>
+        <v>392</v>
       </c>
       <c r="B118" t="s">
-        <v>514</v>
+        <v>399</v>
       </c>
       <c r="C118" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>511</v>
+        <v>397</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I118" t="s">
-        <v>512</v>
+        <v>398</v>
       </c>
       <c r="J118" t="s">
-        <v>513</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>506</v>
+        <v>392</v>
       </c>
       <c r="B119" t="s">
-        <v>518</v>
+        <v>402</v>
       </c>
       <c r="C119" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>515</v>
+        <v>400</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I119" t="s">
-        <v>516</v>
+        <v>401</v>
       </c>
       <c r="J119" t="s">
-        <v>517</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>506</v>
+        <v>392</v>
       </c>
       <c r="B120" t="s">
-        <v>519</v>
+        <v>404</v>
       </c>
       <c r="C120" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>522</v>
+        <v>405</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I120" t="s">
-        <v>520</v>
+        <v>403</v>
       </c>
       <c r="J120" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>526</v>
+        <v>408</v>
       </c>
       <c r="B121" t="s">
-        <v>527</v>
+        <v>409</v>
       </c>
       <c r="C121" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>523</v>
+        <v>406</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I121" t="s">
-        <v>524</v>
+        <v>407</v>
       </c>
       <c r="J121" t="s">
-        <v>525</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>526</v>
+        <v>408</v>
       </c>
       <c r="B122" t="s">
-        <v>531</v>
+        <v>412</v>
       </c>
       <c r="C122" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I122" t="s">
-        <v>528</v>
+        <v>411</v>
       </c>
       <c r="J122" t="s">
-        <v>529</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>526</v>
+        <v>408</v>
       </c>
       <c r="B123" t="s">
-        <v>532</v>
+        <v>415</v>
       </c>
       <c r="C123" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I123" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="J123" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>526</v>
+        <v>408</v>
       </c>
       <c r="B124" t="s">
-        <v>532</v>
+        <v>415</v>
       </c>
       <c r="C124" t="s">
-        <v>532</v>
+        <v>415</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G124" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I124" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="J124" t="s">
-        <v>538</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
